--- a/medicine/Enfance/Cornelia_Meigs/Cornelia_Meigs.xlsx
+++ b/medicine/Enfance/Cornelia_Meigs/Cornelia_Meigs.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cornelia Lynde Meigs (1884-1973) est une écrivaine américaine de fiction et de biographie pour enfants, professeur d'anglais et d'écriture, historienne et critique de littérature enfantine. Elle a remporté la médaille Newbery pour sa biographie de Louisa May Alcott de 1933, intitulée Invincible Louisa. Elle a également écrit trois livres cités au Newbery Honor[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cornelia Lynde Meigs (1884-1973) est une écrivaine américaine de fiction et de biographie pour enfants, professeur d'anglais et d'écriture, historienne et critique de littérature enfantine. Elle a remporté la médaille Newbery pour sa biographie de Louisa May Alcott de 1933, intitulée Invincible Louisa. Elle a également écrit trois livres cités au Newbery Honor.
 </t>
         </is>
       </c>
@@ -511,13 +523,15 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cornelia Meigs est née le 6 décembre 1884 de la cinquième des six filles de l'ingénieur civil Montgomery C. Meigs, Jr.[2] et de Grace Lynde Meigs à Rock Island, Illinois. La famille déménage à Keokuk, dans l'Iowa, alors qu'elle est âgée d'un mois. Après avoir obtenu son diplôme au Keokuk High School en 1901[3], elle étudie au Collège Bryn Mawr, où elle obtient un diplôme A.B. en 1907[4].
-Meigs commence à écrire des livres pour enfants alors qu'elle est professeur d'anglais à l'école St. Katherine de Davenport, Iowa[5]. Son premier livre, The Kingdom of the Winding Road, a été publié par Macmillan US en 1915. En 1922, elle est finaliste pour la première médaille Newbery décernée par des bibliothécaires professionnels, reconnaissant la « contribution la plus distinguée de l'année précédente à la littérature enfantine américaine »[1]. Les membres de l'American Library Association ont été invités à nommer un livre et The Windy Hill (en) de Meigs est le dernier des six à avoir reçu au moins deux votes et à être retenu comme finalistes. Elle est de nouveau finaliste en 1929 (Clearing Weather (en)) et en 1933 (Swift Rivers (en)). Les œuvres finalistes s'appellent désormais Newbery Honor Books, de sorte que les éditions suivantes sont autorisées à afficher un sceau d'argent sur la couverture.
-Meigs a remporté un prix Little, Brown and Co. avec The Trade Wind. Les éditions Little, Brown ont publié ce livre en 1927 et par la suite plusieurs de ses œuvres, y compris les biographies pour enfants de Louisa May Alcott et Jane Addams. Meigs est surtout connue pour sa biographie d'Alcott, Invincible Louisa: The Story of the Author of "Little Women", qui a remporté la médaille Newbery en 1934[1]. Il suit Alcott depuis son enfance en Pennsylvanie et à Boston alors qu'elle écrit son roman Les Quatre Filles du docteur March. Kirkus Reviews a qualifié Meigs de « l'un des auteurs de fiction pour garçons et filles les plus appréciés », a observé que Les Quatre Filles du docteur March est « pratiquement autobiographique » et a recommandé que les livres soient associés[6].
-En 1932, Meigs devient professeur de littérature anglaise à Bryn Mawr[7] où elle resta jusqu'à sa retraite en 1950. Pendant la Seconde Guerre mondiale, elle prend un congés de trois ans et travaille pour le Département de la guerre[8]. Après avoir quitté Bryn Mawr, Meigs enseigne l'écriture à la New School of Social Research à New York. Elle a été la rédactrice en chef et l'une des rédactrices de A Critical History of Children's Literature, publié par Macmillan en 1953, qui a été qualifié de « point de repère dans le domaine de la littérature pour enfants »[8]. Il a été révisé sous la direction de Meigs et réédité en 1969. Au cours de sa vie, Meigs a écrit plus de 30 livres de fiction pour enfants, ainsi que deux pièces de théâtre, deux biographies et plusieurs livres et articles pour adultes.
-Meigs vivait à Sion Hill, à Havre de Grace dans le Maryland et à Brandon, Vermont[9]. Elle meurt à Havre de Grace, le 10 septembre 1973. La plupart de ses articles se trouvent à la Bibliothèque des collections spéciales du Dartmouth College[7]. D'autres sont dans la collection de Grummond à l'University of Southern Mississippi à Hattiesburg[10] et à l'Université de l'Iowa à Iowa City.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cornelia Meigs est née le 6 décembre 1884 de la cinquième des six filles de l'ingénieur civil Montgomery C. Meigs, Jr. et de Grace Lynde Meigs à Rock Island, Illinois. La famille déménage à Keokuk, dans l'Iowa, alors qu'elle est âgée d'un mois. Après avoir obtenu son diplôme au Keokuk High School en 1901, elle étudie au Collège Bryn Mawr, où elle obtient un diplôme A.B. en 1907.
+Meigs commence à écrire des livres pour enfants alors qu'elle est professeur d'anglais à l'école St. Katherine de Davenport, Iowa. Son premier livre, The Kingdom of the Winding Road, a été publié par Macmillan US en 1915. En 1922, elle est finaliste pour la première médaille Newbery décernée par des bibliothécaires professionnels, reconnaissant la « contribution la plus distinguée de l'année précédente à la littérature enfantine américaine ». Les membres de l'American Library Association ont été invités à nommer un livre et The Windy Hill (en) de Meigs est le dernier des six à avoir reçu au moins deux votes et à être retenu comme finalistes. Elle est de nouveau finaliste en 1929 (Clearing Weather (en)) et en 1933 (Swift Rivers (en)). Les œuvres finalistes s'appellent désormais Newbery Honor Books, de sorte que les éditions suivantes sont autorisées à afficher un sceau d'argent sur la couverture.
+Meigs a remporté un prix Little, Brown and Co. avec The Trade Wind. Les éditions Little, Brown ont publié ce livre en 1927 et par la suite plusieurs de ses œuvres, y compris les biographies pour enfants de Louisa May Alcott et Jane Addams. Meigs est surtout connue pour sa biographie d'Alcott, Invincible Louisa: The Story of the Author of "Little Women", qui a remporté la médaille Newbery en 1934. Il suit Alcott depuis son enfance en Pennsylvanie et à Boston alors qu'elle écrit son roman Les Quatre Filles du docteur March. Kirkus Reviews a qualifié Meigs de « l'un des auteurs de fiction pour garçons et filles les plus appréciés », a observé que Les Quatre Filles du docteur March est « pratiquement autobiographique » et a recommandé que les livres soient associés.
+En 1932, Meigs devient professeur de littérature anglaise à Bryn Mawr où elle resta jusqu'à sa retraite en 1950. Pendant la Seconde Guerre mondiale, elle prend un congés de trois ans et travaille pour le Département de la guerre. Après avoir quitté Bryn Mawr, Meigs enseigne l'écriture à la New School of Social Research à New York. Elle a été la rédactrice en chef et l'une des rédactrices de A Critical History of Children's Literature, publié par Macmillan en 1953, qui a été qualifié de « point de repère dans le domaine de la littérature pour enfants ». Il a été révisé sous la direction de Meigs et réédité en 1969. Au cours de sa vie, Meigs a écrit plus de 30 livres de fiction pour enfants, ainsi que deux pièces de théâtre, deux biographies et plusieurs livres et articles pour adultes.
+Meigs vivait à Sion Hill, à Havre de Grace dans le Maryland et à Brandon, Vermont. Elle meurt à Havre de Grace, le 10 septembre 1973. La plupart de ses articles se trouvent à la Bibliothèque des collections spéciales du Dartmouth College. D'autres sont dans la collection de Grummond à l'University of Southern Mississippi à Hattiesburg et à l'Université de l'Iowa à Iowa City.
 </t>
         </is>
       </c>
@@ -546,7 +560,9 @@
           <t>Récompenses</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>1915 : Drama League prize pour The Steadfast Princess
 1922 : Newbery Honor pour Windy Hill
@@ -584,8 +600,13 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Fiction pour enfants
-(en) The Kingdom of the Winding Road, The Macmillan Company, 1915
+          <t>Fiction pour enfants</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>(en) The Kingdom of the Winding Road, The Macmillan Company, 1915
 (en) Master Simon's Garden, Macmillan, 1916
 (en) The Pool of Stars, Macmillan, 1919
 (en) The Windy Hill, Macmillan, 1921
@@ -601,20 +622,156 @@
 (en) The Two Arrows, Macmillan, 1949
 (en) The Dutch Colt, Macmillan, 1952
 (en) Wild Geese Flying, Macmillan, 1957
-(en) Mystery at the Red House, Macmillan, 1961
-Fiction sous le nom d'Adair Aldon
-(en) The Island of Appledore, Macmillan, 1917
+(en) Mystery at the Red House, Macmillan, 1961</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Cornelia_Meigs</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cornelia_Meigs</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Œuvres (sélection)</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Fiction sous le nom d'Adair Aldon</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>(en) The Island of Appledore, Macmillan, 1917
 (en) The Pirate of Jasper Peak, Macmillan, 1918
 (en) At the Sign of the Two Heroes, The Century Company, 1920
-(en) The Hill of Adventure, Century, 1922
-Pièces de théâtre
-(en) The Steadfast Princess, Macmillan, 1916
-(en) Helga and the White Peacock, Macmillan, 1922
-Biographies
-(en) Invincible Louisa : The Story of the Author of "Little Women", Little Brown, 1933
-(en) Jane Adams: Pioneer for Social Justice: A Biography, Little Brown, 1970
-Pour adultes
-(en) Railroad West, Little Brown, 1937roman
+(en) The Hill of Adventure, Century, 1922</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Cornelia_Meigs</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cornelia_Meigs</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Œuvres (sélection)</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Pièces de théâtre</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>(en) The Steadfast Princess, Macmillan, 1916
+(en) Helga and the White Peacock, Macmillan, 1922</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Cornelia_Meigs</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cornelia_Meigs</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Œuvres (sélection)</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Biographies</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>(en) Invincible Louisa : The Story of the Author of "Little Women", Little Brown, 1933
+(en) Jane Adams: Pioneer for Social Justice: A Biography, Little Brown, 1970</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Cornelia_Meigs</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cornelia_Meigs</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Œuvres (sélection)</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Pour adultes</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>(en) Railroad West, Little Brown, 1937roman
 (en) The Violent Men: A Study of Human Relations in the First American Congress, Macmillan, 1949
 (en) A Critical History of Children's Literature: A Survey of Children's Books in English from Earliest Times to the Present, Prepared in Four Parts Under the Editorship of Cornelia Meigs, Macmillan, 1953, 624 p.Coécrit avec Anne Thaxter Eaton, Elizabeth Nesbit et Ruth Hill Viguers.
 (en) What Makes a College? A History of Bryn Mawr, Macmillan, 1956</t>
